--- a/complex_tenses/complex_tenses_excel/complex_tenses.xlsx
+++ b/complex_tenses/complex_tenses_excel/complex_tenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/Verbs_Paradigms/Public/complex_tenses/complex_tenses_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA5904F-0436-824D-B6AF-DDE4F2353BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB64480-70C9-0A44-AF9E-F39E51EBCC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1160" windowWidth="28160" windowHeight="15240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>Verb shape</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>V Prog</t>
+  </si>
+  <si>
+    <t>Construction</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD28"/>
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -548,7 +551,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
